--- a/data/hotels_by_city/Houston/Houston_shard_369.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_369.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g1009393-d10372971-Reviews-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Home2-Suites-By-Hilton-Shenandoah-The-Woodlands.h15118062.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,804 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r601606780-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>10372971</t>
+  </si>
+  <si>
+    <t>601606780</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>The staff was extremely friendly from the time we got there, til the time we left, the room was clean and a very good size for my family, the beds were very comfortable, and the pull out sofa was helpfull as well for my familyMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The staff was extremely friendly from the time we got there, til the time we left, the room was clean and a very good size for my family, the beds were very comfortable, and the pull out sofa was helpfull as well for my familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r599412398-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>599412398</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>This Home2 Suites property has been the best one we have stayed at yet. Room was spacious, comfortable and most important CLEAN. The pool and grill areas were well laid out and spacious. The staff was courteous and very professional. Definitely a “must stay” when in the Woodlands area. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This Home2 Suites property has been the best one we have stayed at yet. Room was spacious, comfortable and most important CLEAN. The pool and grill areas were well laid out and spacious. The staff was courteous and very professional. Definitely a “must stay” when in the Woodlands area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r596868758-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>596868758</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for my daughters nearby sports tournament.  The staff was friendly, the rooms were big and very clean.  We prefer hotels with complementary breakfast to save on expenses, this place a a variety of healthy choices and easy to heat things up and take them with you if you're short on time.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for my daughters nearby sports tournament.  The staff was friendly, the rooms were big and very clean.  We prefer hotels with complementary breakfast to save on expenses, this place a a variety of healthy choices and easy to heat things up and take them with you if you're short on time.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r591783973-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>591783973</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>We stayed at this property for 3 nights and loved it - clean, spacious, quiet, new, and so convenient to all The Woodlands has to offer.  The laundry facilities, exercise room, complimentary breakfast, and pool are fantastic.  Luis and Joel were especially helpful at the front desk.  Great place to stay!!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r589559009-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>589559009</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>My stay was perfect from arrival to departure. Room was great. Complimentary breakfast wonderful. Staff very helpful. Suite was totally awesome. Hotel very close to everything I needed.  I will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>My stay was perfect from arrival to departure. Room was great. Complimentary breakfast wonderful. Staff very helpful. Suite was totally awesome. Hotel very close to everything I needed.  I will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r588443943-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>588443943</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Home2 Suites has all you will ever need</t>
+  </si>
+  <si>
+    <t>Great location, great staff and clean nice high-end hotel. When you are away from home this is the best place to be.  Rooms are clean, spacious and feels like home.  Try one out the next time you visit a city that has one. MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Great location, great staff and clean nice high-end hotel. When you are away from home this is the best place to be.  Rooms are clean, spacious and feels like home.  Try one out the next time you visit a city that has one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r582183538-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>582183538</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Softball tournament</t>
+  </si>
+  <si>
+    <t>The hotel was awesome! The rooms are very spacious and clean.  The staff was great and Tamara with sales was so helpful. The outdoor area was great,  there is plenty of room to bbq.  The only thing I would recommend is more pillows. We would definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was awesome! The rooms are very spacious and clean.  The staff was great and Tamara with sales was so helpful. The outdoor area was great,  there is plenty of room to bbq.  The only thing I would recommend is more pillows. We would definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r579130112-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>579130112</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>I love this brand</t>
+  </si>
+  <si>
+    <t>Modern, new, super clean.  Great breakfast with grain free waffle mix.  Lots of storage in room. Apartment sized refrigerator.  Quiet- great pool and fitness center. Walking distance to restaurants- 1/4 mile from interstate 45. Friendly staff. I had a room in front of the dumpster that picks up at 530 in the am.  I had to get up for work so didn’t care but if you want to sleep late- I’d ask to be on other side. MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Modern, new, super clean.  Great breakfast with grain free waffle mix.  Lots of storage in room. Apartment sized refrigerator.  Quiet- great pool and fitness center. Walking distance to restaurants- 1/4 mile from interstate 45. Friendly staff. I had a room in front of the dumpster that picks up at 530 in the am.  I had to get up for work so didn’t care but if you want to sleep late- I’d ask to be on other side. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r577221593-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>577221593</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Clean and spacious</t>
+  </si>
+  <si>
+    <t>The new Home2 was very convenient to the Woodlands Mall and all its amenities. The unit was very clean and modern and the sheets were superb. Will definitely stay there again. The breakfast options were vast and varied.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>The new Home2 was very convenient to the Woodlands Mall and all its amenities. The unit was very clean and modern and the sheets were superb. Will definitely stay there again. The breakfast options were vast and varied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r574777939-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>574777939</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Very clean and fresh look!</t>
+  </si>
+  <si>
+    <t>Would highly recommend - very clean and modern.  Suites are large with great amenities.  The location is convenient and there are several dining options within walking distance.  The complimentary breakfast had great food and personally it was easy to grab 'n go.MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Would highly recommend - very clean and modern.  Suites are large with great amenities.  The location is convenient and there are several dining options within walking distance.  The complimentary breakfast had great food and personally it was easy to grab 'n go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r574242798-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>574242798</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Great and Convenient</t>
+  </si>
+  <si>
+    <t>The hotel was new, clean and very convenient to the Woodlands shopping and restaurant area.  The room was large, appliances new and clean, and housekeeping was flawless.  A little pricey, but normal for this particular area.  Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was new, clean and very convenient to the Woodlands shopping and restaurant area.  The room was large, appliances new and clean, and housekeeping was flawless.  A little pricey, but normal for this particular area.  Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r571004718-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>571004718</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Great location, surprisingly quiet</t>
+  </si>
+  <si>
+    <t>The ONLY things I don't care for are the pillows and the lack of a decent coffee maker. Room is spacious, quiet, comfortable. Staff is friendly, breakfast is adequate. Great part of town, plenty of restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>The ONLY things I don't care for are the pillows and the lack of a decent coffee maker. Room is spacious, quiet, comfortable. Staff is friendly, breakfast is adequate. Great part of town, plenty of restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r557140649-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>557140649</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Fantastic Customer Service</t>
+  </si>
+  <si>
+    <t>If you ever need to book a group reservation, call Tamara Sandford at this hotel. She is extremely helpful and courteous. I had many questions which she was able to answer and resolve. We love staying at Home2 Suites and look forward to staying at this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>If you ever need to book a group reservation, call Tamara Sandford at this hotel. She is extremely helpful and courteous. I had many questions which she was able to answer and resolve. We love staying at Home2 Suites and look forward to staying at this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r556994288-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>556994288</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>True home away from home</t>
+  </si>
+  <si>
+    <t>Our family of 6 made Home2Suites Shenandoah our home for 78 nights and we were so comfortable and happy that now that we are in our new home we miss the Hotel and Staff. Staff was always professional and very friendly, helpful, and acomodating. We were able meet all of the staff, see their operations and you don’t see such an amazing staff on other similar size hotels. We chose one of the largest rooms and it was comfortable, spacious, and with all the necessary amenities for such a long stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Our family of 6 made Home2Suites Shenandoah our home for 78 nights and we were so comfortable and happy that now that we are in our new home we miss the Hotel and Staff. Staff was always professional and very friendly, helpful, and acomodating. We were able meet all of the staff, see their operations and you don’t see such an amazing staff on other similar size hotels. We chose one of the largest rooms and it was comfortable, spacious, and with all the necessary amenities for such a long stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r555727889-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>555727889</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Comfortable Hilton Brand near Woodlands</t>
+  </si>
+  <si>
+    <t>Nice, very new Hilton Brand close to I-45. Convenient access; very clean and spacious, stocked Suites. Simple and convenient fitness center. Friendly staff and decent breakfast. Ample parking (of course this is texas !)MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Nice, very new Hilton Brand close to I-45. Convenient access; very clean and spacious, stocked Suites. Simple and convenient fitness center. Friendly staff and decent breakfast. Ample parking (of course this is texas !)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r550128746-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>550128746</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Christmas Visit to Conroe</t>
+  </si>
+  <si>
+    <t>New facility.  Clean and neat.  Good breakfast.  Room was quiet.    Nice king bed.  Shower was very good.  There was lots of room.  We didn't use appliances but there was a refrigerator, microwave and kitchen sink.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>New facility.  Clean and neat.  Good breakfast.  Room was quiet.    Nice king bed.  Shower was very good.  There was lots of room.  We didn't use appliances but there was a refrigerator, microwave and kitchen sink.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r549938291-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>549938291</t>
+  </si>
+  <si>
+    <t>Great deal</t>
+  </si>
+  <si>
+    <t>The Home 2 gives you everything you need for a pleasant stay and a bit more at a price that is very competitive. Great, spacious and modern rooms, very comfortable beds, extremely friendly staff, 24\7 gym, indoor pool and a free breakfast that is better than in most similar places. Great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>The Home 2 gives you everything you need for a pleasant stay and a bit more at a price that is very competitive. Great, spacious and modern rooms, very comfortable beds, extremely friendly staff, 24\7 gym, indoor pool and a free breakfast that is better than in most similar places. Great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r548957670-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>548957670</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Gunny</t>
+  </si>
+  <si>
+    <t>The staff at this location make the stay a 5 star experience, they will go out of their way to make sure you experience an enjoyable stay. The Home2 Suites is a great concept and the staff support the concept, clients and each other in carrying out their responsibilitiesMoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>The staff at this location make the stay a 5 star experience, they will go out of their way to make sure you experience an enjoyable stay. The Home2 Suites is a great concept and the staff support the concept, clients and each other in carrying out their responsibilitiesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r546448245-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>546448245</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel but Problems</t>
+  </si>
+  <si>
+    <t>Checked in here after having a great experience at the Home2 in OKC.  Arrived about 8 pm and were given our room on the third floor.  Upon entering our room I noticed the lights were on and thought it was strange, then noticed the wet towel on the floor and the makeup bag and toothbrush on the counter! We hauled back out the door and went to the front desk to inform them someone was already in the room. The young guy at the desk was confused but gave us a different room down the hall and off we went. Fast forward to 11 pm when a party erupted in the room next door. I can sleep though a lot but screaming, music and banging on the walls was too much after a long day on the road.  called the front desk and moved to our third room on the 4th floor as far away from the noise as we could get.  The Hotel itself is new and modern.  The beds are comfortable and the location is close to I-45. I just hope they get their act together as far as the customer experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Checked in here after having a great experience at the Home2 in OKC.  Arrived about 8 pm and were given our room on the third floor.  Upon entering our room I noticed the lights were on and thought it was strange, then noticed the wet towel on the floor and the makeup bag and toothbrush on the counter! We hauled back out the door and went to the front desk to inform them someone was already in the room. The young guy at the desk was confused but gave us a different room down the hall and off we went. Fast forward to 11 pm when a party erupted in the room next door. I can sleep though a lot but screaming, music and banging on the walls was too much after a long day on the road.  called the front desk and moved to our third room on the 4th floor as far away from the noise as we could get.  The Hotel itself is new and modern.  The beds are comfortable and the location is close to I-45. I just hope they get their act together as far as the customer experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r544540368-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>544540368</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Lovely property</t>
+  </si>
+  <si>
+    <t>This hotel is clean, efficient, comfortable like home, has any amenity one needs for a business trip and for a longer stay. I recommend any Home2. They have all been terrific. The Woodlands is a place I love to visit and this location is easy access to I-45 so getting anywhere near Houston is easy.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is clean, efficient, comfortable like home, has any amenity one needs for a business trip and for a longer stay. I recommend any Home2. They have all been terrific. The Woodlands is a place I love to visit and this location is easy access to I-45 so getting anywhere near Houston is easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r543902787-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>543902787</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Soft sheets, great location</t>
+  </si>
+  <si>
+    <t>The bed had the softest sheets I have ever experienced and according to the information in the room they are also eco-friendly. The hotel is by the interstate and close to The Woodlands Mall. I was very satisfied with the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>The bed had the softest sheets I have ever experienced and according to the information in the room they are also eco-friendly. The hotel is by the interstate and close to The Woodlands Mall. I was very satisfied with the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r542258369-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>542258369</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>By far the most comfortable bed I’ve slept in! The sheets are amazing! Love the Hilton chain, and the Home 2 Suites never lets us down. The cost is reasonable, and the experience is above what you would expect. MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>By far the most comfortable bed I’ve slept in! The sheets are amazing! Love the Hilton chain, and the Home 2 Suites never lets us down. The cost is reasonable, and the experience is above what you would expect. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r542126001-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>542126001</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Only 1/2 the points of other Hiltons</t>
+  </si>
+  <si>
+    <t>Like other Home 2 suites, very nice and clean hotel. Staff not friendly though at check-in. Only give 1/2 the points of other Hilton hotels and clean up 1/2 as much. No coffee pot only single cut maker. No body lotion! Had to have check-out clerk fix my invoice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Like other Home 2 suites, very nice and clean hotel. Staff not friendly though at check-in. Only give 1/2 the points of other Hilton hotels and clean up 1/2 as much. No coffee pot only single cut maker. No body lotion! Had to have check-out clerk fix my invoice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r540545181-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>540545181</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Great staff very friendly super clean</t>
+  </si>
+  <si>
+    <t>Felt right at home from the first day. Staff was always nice and greeted me with a great smile will definitely come back and stay will recommend for future trips very accessible breakfast was great beds always clean cleaning staff did a great jobMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Priscilla A, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Felt right at home from the first day. Staff was always nice and greeted me with a great smile will definitely come back and stay will recommend for future trips very accessible breakfast was great beds always clean cleaning staff did a great jobMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r537131153-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>537131153</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Wonderful experience overall. Very nice staff; big, spotless room; super comfy bed. The location is great, it’s close to everything in The Woodlands, but away from the traffic. A great value compared to the other hotels in the area. I’ll definately stay here again, loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful experience overall. Very nice staff; big, spotless room; super comfy bed. The location is great, it’s close to everything in The Woodlands, but away from the traffic. A great value compared to the other hotels in the area. I’ll definately stay here again, loved it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r536998271-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>536998271</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The hotel was warmly inviting with a nice outdoor sitting area. Grrst service upon checkin. Hotel was quiet in spite of being fully booked. Excellent location. Close to everything with minimal traffic noise. MoreShow less</t>
+  </si>
+  <si>
+    <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was warmly inviting with a nice outdoor sitting area. Grrst service upon checkin. Hotel was quiet in spite of being fully booked. Excellent location. Close to everything with minimal traffic noise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r536228647-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>536228647</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>I would have liked breakfast to have a variety it was the same EVERY morning I stayed almost 20 days, I eventually bought my own. The beds were comfortable. The tv had lots of channels more than your average hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>I would have liked breakfast to have a variety it was the same EVERY morning I stayed almost 20 days, I eventually bought my own. The beds were comfortable. The tv had lots of channels more than your average hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r535825832-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>535825832</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>New Hotel - Clean &amp; Friendly</t>
+  </si>
+  <si>
+    <t>Tamara and Team were amazing. Hotel is new and very clean. The front desk team were very friendly and helpful. Rooms are very clean and the bedding is very nice.I highly recommend this hotel to anyone traveling to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Tamara and Team were amazing. Hotel is new and very clean. The front desk team were very friendly and helpful. Rooms are very clean and the bedding is very nice.I highly recommend this hotel to anyone traveling to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r534226255-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>534226255</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Home2Suites Houston</t>
+  </si>
+  <si>
+    <t>Overall the quality of services and accommodation in this hotel was very good. It was extremely modern and clean, very similar to hotels in Europe. The breakfast experience is to be avoided as it is a self service microwave offering of cardboard items that masquerade as food.MoreShow less</t>
+  </si>
+  <si>
+    <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Overall the quality of services and accommodation in this hotel was very good. It was extremely modern and clean, very similar to hotels in Europe. The breakfast experience is to be avoided as it is a self service microwave offering of cardboard items that masquerade as food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r533848131-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>533848131</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Rest for the Renaissance Festival</t>
+  </si>
+  <si>
+    <t>We stayed here for our Texas Renaissance weekend. The staff was friendly, helpful, courteous, and professional. The breakfast was okay -Waffles (great), bagels, toast, yogurt, fruit, oatmeal, oatmeal toppings, cold cereal, fruit bowl, microwavable egg sandwiches, microwavable scrambled eggs, hardboiled eggs, gourmet coffee. The atmosphere is cool and clean with a great woodsy view. The firepit area is nice, too. We had six in our group. Since my in-laws have limited mobility, the front desk offered us an ADA Room which gave us ample space for all of us to enjoy our weekend stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for our Texas Renaissance weekend. The staff was friendly, helpful, courteous, and professional. The breakfast was okay -Waffles (great), bagels, toast, yogurt, fruit, oatmeal, oatmeal toppings, cold cereal, fruit bowl, microwavable egg sandwiches, microwavable scrambled eggs, hardboiled eggs, gourmet coffee. The atmosphere is cool and clean with a great woodsy view. The firepit area is nice, too. We had six in our group. Since my in-laws have limited mobility, the front desk offered us an ADA Room which gave us ample space for all of us to enjoy our weekend stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r528565275-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>528565275</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This was an awesome stay. The staff was always helpful and friendly. The room was very clean and comfortable. There was plenty of parking. Close to several restaurants in town. I would stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2017</t>
+  </si>
+  <si>
+    <t>This was an awesome stay. The staff was always helpful and friendly. The room was very clean and comfortable. There was plenty of parking. Close to several restaurants in town. I would stay here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r524535340-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>524535340</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Flooded in Houston</t>
+  </si>
+  <si>
+    <t>Hotel is very well run, extremely clean and neat. Staff very helpful at all times. Breakfast was very well prepared and presented. Location is a bet hard to found due to location not visible by road. Overall this is fine hotel well run and management goes out of its way to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is very well run, extremely clean and neat. Staff very helpful at all times. Breakfast was very well prepared and presented. Location is a bet hard to found due to location not visible by road. Overall this is fine hotel well run and management goes out of its way to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r523631525-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>523631525</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Best hotel in the Woodlands!</t>
+  </si>
+  <si>
+    <t>The staff here is warm friendly and very accommodating. The room and premises were impeccably neat clean and beautifully decorated. The breakfast was a great bonus and the rooms couldn't have been any better!  Perfection!  I can't wait to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff here is warm friendly and very accommodating. The room and premises were impeccably neat clean and beautifully decorated. The breakfast was a great bonus and the rooms couldn't have been any better!  Perfection!  I can't wait to stay here again!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1336,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1368,2356 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" t="s">
+        <v>206</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" t="s">
+        <v>206</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>246</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>262</v>
+      </c>
+      <c r="X28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>278</v>
+      </c>
+      <c r="X30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>245</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>237</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_369.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_369.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,168 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r613151373-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>10372971</t>
+  </si>
+  <si>
+    <t>613151373</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Quiet and Comfortable</t>
+  </si>
+  <si>
+    <t>The bed was super comfortable and the hotel was very clean. Overall the property seemed well taken care except for one issue in the fitness center. I was finishing my run on the treadmill at about 8.5 mph and the power to the treadmill cut, stopping the belt immediately. I told the front desk about it and they unplugged the treadmill and asked if I was ok. Could have been pretty ugly going immediately from 8.5 to 0 though.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>The bed was super comfortable and the hotel was very clean. Overall the property seemed well taken care except for one issue in the fitness center. I was finishing my run on the treadmill at about 8.5 mph and the power to the treadmill cut, stopping the belt immediately. I told the front desk about it and they unplugged the treadmill and asked if I was ok. Could have been pretty ugly going immediately from 8.5 to 0 though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r594347630-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>594347630</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Baseball Tournament</t>
+  </si>
+  <si>
+    <t>This place is great. Large rooms and space The beds were really soft and comfortable. We like the lay out and style that it has. Nice sitting area all thru out the Hotel. I did not like the check in policy of the hotel charging a extra 25% to my card for reasons unseeing. They said that it will be put back on the card with in 5 days. But overall it was a nice stay. Will stay again and look for the same chain this coming week. It is a little pricey but it was a last minute thing in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>This place is great. Large rooms and space The beds were really soft and comfortable. We like the lay out and style that it has. Nice sitting area all thru out the Hotel. I did not like the check in policy of the hotel charging a extra 25% to my card for reasons unseeing. They said that it will be put back on the card with in 5 days. But overall it was a nice stay. Will stay again and look for the same chain this coming week. It is a little pricey but it was a last minute thing in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r607168476-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>607168476</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms, Terrible breakfast!</t>
+  </si>
+  <si>
+    <t>The rooms were nice, but the breakfast every morning was awful. I suggest you add additional time and money to your morning routine, and avoid starting your day with this breakfast. I think they're trying to be too millennial. Just plain nasty.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The rooms were nice, but the breakfast every morning was awful. I suggest you add additional time and money to your morning routine, and avoid starting your day with this breakfast. I think they're trying to be too millennial. Just plain nasty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r605393952-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>605393952</t>
+  </si>
+  <si>
     <t>08/11/2018</t>
   </si>
   <si>
+    <t>Young Professional Traveler - Great Home away from Home!</t>
+  </si>
+  <si>
+    <t>This hotel has the most comfortable beds, softest sheets, and very friendly staff! The location is close to shops and restaurants, and is right of the highway which makes getting places very quick and easy!MoreShow less</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel has the most comfortable beds, softest sheets, and very friendly staff! The location is close to shops and restaurants, and is right of the highway which makes getting places very quick and easy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r605368882-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>605368882</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel within 2 mile walking distance of Cynthia Woods Pavilion.   Complimentary breakfast was very good.   Beds were super comfy.  We stayed on points so not sure about the price.  I love having a kitchen available in my room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel within 2 mile walking distance of Cynthia Woods Pavilion.   Complimentary breakfast was very good.   Beds were super comfy.  We stayed on points so not sure about the price.  I love having a kitchen available in my room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r603455394-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>603455394</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>This hotel was one of the nicest rooms and most comfortable beds I have been in in a long time and the staff was wonderful. I have already recommended H2 to several people. And look forward to my next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel was one of the nicest rooms and most comfortable beds I have been in in a long time and the staff was wonderful. I have already recommended H2 to several people. And look forward to my next stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r601606780-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
-    <t>1009393</t>
-  </si>
-  <si>
-    <t>10372971</t>
-  </si>
-  <si>
     <t>601606780</t>
   </si>
   <si>
@@ -171,16 +321,10 @@
     <t>The staff was extremely friendly from the time we got there, til the time we left, the room was clean and a very good size for my family, the beds were very comfortable, and the pull out sofa was helpfull as well for my familyMoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2018</t>
   </si>
   <si>
     <t>The staff was extremely friendly from the time we got there, til the time we left, the room was clean and a very good size for my family, the beds were very comfortable, and the pull out sofa was helpfull as well for my familyMore</t>
@@ -201,13 +345,10 @@
     <t>This Home2 Suites property has been the best one we have stayed at yet. Room was spacious, comfortable and most important CLEAN. The pool and grill areas were well laid out and spacious. The staff was courteous and very professional. Definitely a “must stay” when in the Woodlands area. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
   </si>
   <si>
     <t>This Home2 Suites property has been the best one we have stayed at yet. Room was spacious, comfortable and most important CLEAN. The pool and grill areas were well laid out and spacious. The staff was courteous and very professional. Definitely a “must stay” when in the Woodlands area. More</t>
@@ -228,15 +369,54 @@
     <t>We stayed at this hotel for my daughters nearby sports tournament.  The staff was friendly, the rooms were big and very clean.  We prefer hotels with complementary breakfast to save on expenses, this place a a variety of healthy choices and easy to heat things up and take them with you if you're short on time.   MoreShow less</t>
   </si>
   <si>
-    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Joel D, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
   </si>
   <si>
     <t>We stayed at this hotel for my daughters nearby sports tournament.  The staff was friendly, the rooms were big and very clean.  We prefer hotels with complementary breakfast to save on expenses, this place a a variety of healthy choices and easy to heat things up and take them with you if you're short on time.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r595399443-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>595399443</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Cheap &amp; Cheerful</t>
+  </si>
+  <si>
+    <t>Biggest plus is the price - very low and includes breakfast. We stayed for 12 nights in between the renting of houses. Our room was actually reasonably spacious, and exceptionally clean too I must add. Bed was comfortable. Reception staff are friendly and helpful though we did think the general manager was quite rude - never took us on in the 12 nights we stayed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Biggest plus is the price - very low and includes breakfast. We stayed for 12 nights in between the renting of houses. Our room was actually reasonably spacious, and exceptionally clean too I must add. Bed was comfortable. Reception staff are friendly and helpful though we did think the general manager was quite rude - never took us on in the 12 nights we stayed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r592016297-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>592016297</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Out n about h-town</t>
+  </si>
+  <si>
+    <t>The location for us was very important. We have family in the Houston metroplex area and staying close to some was of utmost importance. I went online and searched for hotels I'm familiar with. I found this one and booked it. Little did I know it was situated in outskirts of Houston I had never been to. The location was perfect...everything we needed was at close proximity. Will hopefully go again soon.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r591783973-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -252,9 +432,6 @@
     <t>We stayed at this property for 3 nights and loved it - clean, spacious, quiet, new, and so convenient to all The Woodlands has to offer.  The laundry facilities, exercise room, complimentary breakfast, and pool are fantastic.  Luis and Joel were especially helpful at the front desk.  Great place to stay!!</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -303,6 +480,57 @@
     <t>Great location, great staff and clean nice high-end hotel. When you are away from home this is the best place to be.  Rooms are clean, spacious and feels like home.  Try one out the next time you visit a city that has one. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r586843214-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>586843214</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Perfect and very clean. Very people working at this hotel. Make you feel very comfortable just like if you are at home. Rooms always very very clean. Will use this hotel every time I will fly to HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Perfect and very clean. Very people working at this hotel. Make you feel very comfortable just like if you are at home. Rooms always very very clean. Will use this hotel every time I will fly to HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r584172780-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>584172780</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but bad weekend to stay</t>
+  </si>
+  <si>
+    <t>Overall the hotel is very nice. It just happen to be a weekend where kids were running in hallways and dripping water near elevators from the pool.  There were very noisy. I was not able to rest. On top of that the sheets had hair everywhere along with makeup stains.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded June 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2018</t>
+  </si>
+  <si>
+    <t>Overall the hotel is very nice. It just happen to be a weekend where kids were running in hallways and dripping water near elevators from the pool.  There were very noisy. I was not able to rest. On top of that the sheets had hair everywhere along with makeup stains.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r582183538-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -318,9 +546,6 @@
     <t>The hotel was awesome! The rooms are very spacious and clean.  The staff was great and Tamara with sales was so helpful. The outdoor area was great,  there is plenty of room to bbq.  The only thing I would recommend is more pillows. We would definitely stay there again. MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded May 23, 2018</t>
   </si>
   <si>
@@ -381,6 +606,39 @@
     <t>The new Home2 was very convenient to the Woodlands Mall and all its amenities. The unit was very clean and modern and the sheets were superb. Will definitely stay there again. The breakfast options were vast and varied.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r577196302-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>577196302</t>
+  </si>
+  <si>
+    <t>Great place to stay with incredible rooms. This has all the amenities of home and then some.</t>
+  </si>
+  <si>
+    <t>I loved the Huge rooms and super comfortable beds.I was completely relaxed and comfortable in my room.The refrigerators are almost full sized and allow plenty of room for all of your goods.This Hotel blows my mind!MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved the Huge rooms and super comfortable beds.I was completely relaxed and comfortable in my room.The refrigerators are almost full sized and allow plenty of room for all of your goods.This Hotel blows my mind!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r576500990-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>576500990</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Spacious rooms convenient located near Woodlands</t>
+  </si>
+  <si>
+    <t>Stayed here for concert held at Woodlands pavilion. Very conveniently located to concert venue, area restaurants and shopping. First stay at Home 2 Suites property but was very nice. Room spacious, very clean. Nice sittting area with pull out soda sleeper. Kitchenette has sink, dishwasher, fully stocked with silverware, dishes and glassware. Small bathroom with shower only in our room. Home 2 Suites has seemed to streamline unnecessary  itens like shampoos, conditioners and lotions as these were supplied in a wall dispenser unit in the shower. Home 2 Suites is perfect for a business traveler. Rooms do not seem as large as Homewood Suites brand of Hilton properties. Very nice property. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for concert held at Woodlands pavilion. Very conveniently located to concert venue, area restaurants and shopping. First stay at Home 2 Suites property but was very nice. Room spacious, very clean. Nice sittting area with pull out soda sleeper. Kitchenette has sink, dishwasher, fully stocked with silverware, dishes and glassware. Small bathroom with shower only in our room. Home 2 Suites has seemed to streamline unnecessary  itens like shampoos, conditioners and lotions as these were supplied in a wall dispenser unit in the shower. Home 2 Suites is perfect for a business traveler. Rooms do not seem as large as Homewood Suites brand of Hilton properties. Very nice property. Highly recommended.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r574777939-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -447,6 +705,60 @@
     <t>The ONLY things I don't care for are the pillows and the lack of a decent coffee maker. Room is spacious, quiet, comfortable. Staff is friendly, breakfast is adequate. Great part of town, plenty of restaurants nearby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r563134163-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>563134163</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>No Complaints - Love This Newer Hilton Brand</t>
+  </si>
+  <si>
+    <t>New facility with friendly staff.  Beds are soft, rooms are quiet, and TV's are equipped with Direct TV.  We forgot toothpaste and the front desk fixed us up with some.  While the street view may show a remote location, this hotel is located in close proximity to a multitude of restaurants and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>New facility with friendly staff.  Beds are soft, rooms are quiet, and TV's are equipped with Direct TV.  We forgot toothpaste and the front desk fixed us up with some.  While the street view may show a remote location, this hotel is located in close proximity to a multitude of restaurants and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r557636591-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>557636591</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Great Room</t>
+  </si>
+  <si>
+    <t>I travel for buisness 15 + days a month and so far this is my favorite hotel. Beds are comfortable, and work space is good. Loved having a couch in the room. The gym was top notch. Its easy to get to off the freeway and lots of food near by. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>I travel for buisness 15 + days a month and so far this is my favorite hotel. Beds are comfortable, and work space is good. Loved having a couch in the room. The gym was top notch. Its easy to get to off the freeway and lots of food near by. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r557140649-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -462,9 +774,6 @@
     <t>If you ever need to book a group reservation, call Tamara Sandford at this hotel. She is extremely helpful and courteous. I had many questions which she was able to answer and resolve. We love staying at Home2 Suites and look forward to staying at this one.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded February 5, 2018</t>
   </si>
   <si>
@@ -525,6 +834,54 @@
     <t>Nice, very new Hilton Brand close to I-45. Convenient access; very clean and spacious, stocked Suites. Simple and convenient fitness center. Friendly staff and decent breakfast. Ample parking (of course this is texas !)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r554125360-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>554125360</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Perfect for the family, but you need transport</t>
+  </si>
+  <si>
+    <t>An excellent, clean and well priced hotel for the family. We travelled as a family of two parents and two kids. This was one of the few "family" rooms that didn't assume 2 kids would share a bed.  Two double beds plus a sofa bed in a single suite certainly sets this place apart from other hotels in the area in terms of catering effectively for a family.The hotel is close to the Woodlands Mall and Market street - but not waling distance - if you have a car everything you need for and enjoyable stay is right there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>An excellent, clean and well priced hotel for the family. We travelled as a family of two parents and two kids. This was one of the few "family" rooms that didn't assume 2 kids would share a bed.  Two double beds plus a sofa bed in a single suite certainly sets this place apart from other hotels in the area in terms of catering effectively for a family.The hotel is close to the Woodlands Mall and Market street - but not waling distance - if you have a car everything you need for and enjoyable stay is right there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r553830045-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>553830045</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Money well spent</t>
+  </si>
+  <si>
+    <t>Very courteous staff and clean well equipped rooms. I would highly recommend this property to any travelers for business or leisure. Hilton does a superb job at taking care of their properties but I did have trouble booking on their app.MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Very courteous staff and clean well equipped rooms. I would highly recommend this property to any travelers for business or leisure. Hilton does a superb job at taking care of their properties but I did have trouble booking on their app.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r550128746-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -597,6 +954,57 @@
     <t>The staff at this location make the stay a 5 star experience, they will go out of their way to make sure you experience an enjoyable stay. The Home2 Suites is a great concept and the staff support the concept, clients and each other in carrying out their responsibilitiesMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r548045032-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>548045032</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Cumfy and convenient!</t>
+  </si>
+  <si>
+    <t>I recently stayed here with my parents so we could be close to the renaissance festival which was about a 35 minute drive away. Our room was really cumfy and I loved the decor. The breakfast was okay, but the waffles were kind of awful. I love waffles, but the mix this hotel uses was really bad. The coffee was great and the breakfast sandwiches are good. The mall is a short drive from the hotel and it has a variety of restaurants. The hotel is a bit hidden from the service road so keep watch for the small street sign.  Over all this hotel was cumfy and convenient!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed here with my parents so we could be close to the renaissance festival which was about a 35 minute drive away. Our room was really cumfy and I loved the decor. The breakfast was okay, but the waffles were kind of awful. I love waffles, but the mix this hotel uses was really bad. The coffee was great and the breakfast sandwiches are good. The mall is a short drive from the hotel and it has a variety of restaurants. The hotel is a bit hidden from the service road so keep watch for the small street sign.  Over all this hotel was cumfy and convenient!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r547947939-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>547947939</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable.</t>
+  </si>
+  <si>
+    <t>I love this place, very comfortable and beautiful, clean clean clean. Loved being able to walk my dog close to the hotel on a nice Sidewalk. Beautiful decor. Comfortable beds!!!   It was very quiet and close to everything. MoreShow less</t>
+  </si>
+  <si>
+    <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>I love this place, very comfortable and beautiful, clean clean clean. Loved being able to walk my dog close to the hotel on a nice Sidewalk. Beautiful decor. Comfortable beds!!!   It was very quiet and close to everything. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r546448245-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -636,9 +1044,6 @@
     <t>This hotel is clean, efficient, comfortable like home, has any amenity one needs for a business trip and for a longer stay. I recommend any Home2. They have all been terrific. The Woodlands is a place I love to visit and this location is easy access to I-45 so getting anywhere near Houston is easy.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Priscilla A, Front Office Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded December 4, 2017</t>
   </si>
   <si>
@@ -672,6 +1077,36 @@
     <t>The bed had the softest sheets I have ever experienced and according to the information in the room they are also eco-friendly. The hotel is by the interstate and close to The Woodlands Mall. I was very satisfied with the hotel. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r543877267-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>543877267</t>
+  </si>
+  <si>
+    <t>Nice place, definitely recommend it!</t>
+  </si>
+  <si>
+    <t>Stayed for one night and was very impressed. Lobby is open with nice lounge areas. Check in was fast, night clerk was very friendly. Our room was huge and immaculate. Nearly full kitchen, full size fridge, full size dishwasher, real dishes and silverware. They said hot plates were available by request but we didn't require one. Breakfast was open promptly at 6 with a good selection for being complimentary. Coffee was great... Which was my main need at 6am! Overall, it was a great experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for one night and was very impressed. Lobby is open with nice lounge areas. Check in was fast, night clerk was very friendly. Our room was huge and immaculate. Nearly full kitchen, full size fridge, full size dishwasher, real dishes and silverware. They said hot plates were available by request but we didn't require one. Breakfast was open promptly at 6 with a good selection for being complimentary. Coffee was great... Which was my main need at 6am! Overall, it was a great experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r543823181-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>543823181</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>extremely clean and quiet hotel. I’m a smoker so I LOVED the out door fire pit. The pit was surrounding with lots of nice seating. We spent all our time sitting around the fire. I’ve had back surgery so mattress was a little too stiff for comfort. Staff were very helpful and professional. MoreShow less</t>
+  </si>
+  <si>
+    <t>extremely clean and quiet hotel. I’m a smoker so I LOVED the out door fire pit. The pit was surrounding with lots of nice seating. We spent all our time sitting around the fire. I’ve had back surgery so mattress was a little too stiff for comfort. Staff were very helpful and professional. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r542258369-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -738,6 +1173,39 @@
     <t>Felt right at home from the first day. Staff was always nice and greeted me with a great smile will definitely come back and stay will recommend for future trips very accessible breakfast was great beds always clean cleaning staff did a great jobMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r538069871-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>538069871</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>This is a new property, large modern rooms</t>
+  </si>
+  <si>
+    <t>1. Andres in reception couldn't be more professional or friendly. He let me look at various rooms and pick the style that best suited me. The suites have a separate bedroom and two TV's. Large bathroom, sitting room and 'kitchen' (no oven or stove top).2. Finally a hotel with decent water volume in the shower! Yes!3. Rooms are simple, modern, spacious.4. Breakfast is standard stuff with the very appreciated metal utensils and ceramic plates and bowls. Not paper or foam. Thank you!. Note that there is no hot breakfast. You need to microwave pre- prepared eggs and egg sandwiches. The coffee is quite bad as most hotels in this price range.5. Gym has very minimal equipment. Certainly not a a substitute for a gym membership.6. For a hotel in this price range it's as good as they come.MoreShow less</t>
+  </si>
+  <si>
+    <t>1. Andres in reception couldn't be more professional or friendly. He let me look at various rooms and pick the style that best suited me. The suites have a separate bedroom and two TV's. Large bathroom, sitting room and 'kitchen' (no oven or stove top).2. Finally a hotel with decent water volume in the shower! Yes!3. Rooms are simple, modern, spacious.4. Breakfast is standard stuff with the very appreciated metal utensils and ceramic plates and bowls. Not paper or foam. Thank you!. Note that there is no hot breakfast. You need to microwave pre- prepared eggs and egg sandwiches. The coffee is quite bad as most hotels in this price range.5. Gym has very minimal equipment. Certainly not a a substitute for a gym membership.6. For a hotel in this price range it's as good as they come.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r538203990-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>538203990</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>A hotel that has plenty of restaurants nearby, it is clean, convenient, and quiet. Additionally I have tried other hotels nearby, and they do not match well with this property. I look forward to staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>A hotel that has plenty of restaurants nearby, it is clean, convenient, and quiet. Additionally I have tried other hotels nearby, and they do not match well with this property. I look forward to staying there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r537131153-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -753,9 +1221,6 @@
     <t>Wonderful experience overall. Very nice staff; big, spotless room; super comfy bed. The location is great, it’s close to everything in The Woodlands, but away from the traffic. A great value compared to the other hotels in the area. I’ll definately stay here again, loved it!MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded October 31, 2017</t>
   </si>
   <si>
@@ -798,9 +1263,6 @@
     <t>10/26/2017</t>
   </si>
   <si>
-    <t>Nice hotel</t>
-  </si>
-  <si>
     <t>I would have liked breakfast to have a variety it was the same EVERY morning I stayed almost 20 days, I eventually bought my own. The beds were comfortable. The tv had lots of channels more than your average hotel MoreShow less</t>
   </si>
   <si>
@@ -813,6 +1275,45 @@
     <t>I would have liked breakfast to have a variety it was the same EVERY morning I stayed almost 20 days, I eventually bought my own. The beds were comfortable. The tv had lots of channels more than your average hotel More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r536322963-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>536322963</t>
+  </si>
+  <si>
+    <t>New, clean and nice</t>
+  </si>
+  <si>
+    <t>Very comfortable bed.   Good value I thought.  Nice fire outside.  AC worked great.  All in all, pretty good.  I found the breakfast to be a bit confusing.  It is a very good location.  This hotel is less than 4 months old.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very comfortable bed.   Good value I thought.  Nice fire outside.  AC worked great.  All in all, pretty good.  I found the breakfast to be a bit confusing.  It is a very good location.  This hotel is less than 4 months old.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r536023254-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>536023254</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Cleanest property!</t>
+  </si>
+  <si>
+    <t>Had a fantastic stay at Home2 last night. This property is gleaming and so clean. Definitely passed my inspection! I loved the fresh apples and snack offered at check in. My room was immaculate and the sheets are so soft (different than the other Hilton properties and a welcome change!) I wound up leaving my Yeti cup in my room and they shipped it to me with no problem and were extremely helpful. I will be back! MoreShow less</t>
+  </si>
+  <si>
+    <t>Homar O, General Manager at Home2 Suites by Hilton Shenandoah the Woodlands, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Had a fantastic stay at Home2 last night. This property is gleaming and so clean. Definitely passed my inspection! I loved the fresh apples and snack offered at check in. My room was immaculate and the sheets are so soft (different than the other Hilton properties and a welcome change!) I wound up leaving my Yeti cup in my room and they shipped it to me with no problem and were extremely helpful. I will be back! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r535825832-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1380,42 @@
     <t>We stayed here for our Texas Renaissance weekend. The staff was friendly, helpful, courteous, and professional. The breakfast was okay -Waffles (great), bagels, toast, yogurt, fruit, oatmeal, oatmeal toppings, cold cereal, fruit bowl, microwavable egg sandwiches, microwavable scrambled eggs, hardboiled eggs, gourmet coffee. The atmosphere is cool and clean with a great woodsy view. The firepit area is nice, too. We had six in our group. Since my in-laws have limited mobility, the front desk offered us an ADA Room which gave us ample space for all of us to enjoy our weekend stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r533453706-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>533453706</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Check in was not smooth</t>
+  </si>
+  <si>
+    <t>Be sure to pre check in and if you can get mobile app key door entry, do that.  We got that room check in on time but our other 2 rooms we had to wait even though we did pre check in but not app key door entry.  House keeping was slow that day.  Breakfast is package egg products that you microwave.  Not a fan of pre package egg.  We were also told one of the packages was vegetarian and it was not.  Always check what you eat.  Room was clean, pet friendly, good linens and towels, eco green friendly in the room, hot plate available to cook in your room with full silverware and pans.  Check out was easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Be sure to pre check in and if you can get mobile app key door entry, do that.  We got that room check in on time but our other 2 rooms we had to wait even though we did pre check in but not app key door entry.  House keeping was slow that day.  Breakfast is package egg products that you microwave.  Not a fan of pre package egg.  We were also told one of the packages was vegetarian and it was not.  Always check what you eat.  Room was clean, pet friendly, good linens and towels, eco green friendly in the room, hot plate available to cook in your room with full silverware and pans.  Check out was easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r532745819-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>532745819</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay!!</t>
+  </si>
+  <si>
+    <t>We had an excellent stay here after being displaced by Hurricane Harvey. Excellent staff and clean hotel. Property is dog friendly. My only suggestion at all is to water the grass less. The dogs were constantly getting muddy from too much watering. Thanks for making it such a wonderful stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an excellent stay here after being displaced by Hurricane Harvey. Excellent staff and clean hotel. Property is dog friendly. My only suggestion at all is to water the grass less. The dogs were constantly getting muddy from too much watering. Thanks for making it such a wonderful stay. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r528565275-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1480,39 @@
   </si>
   <si>
     <t>The staff here is warm friendly and very accommodating. The room and premises were impeccably neat clean and beautifully decorated. The breakfast was a great bonus and the rooms couldn't have been any better!  Perfection!  I can't wait to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r520481844-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>520481844</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>Great hotel and staff. Rooms were neat and clean.  Very accommodating staff.  Breakfast was simple but good:  cereal, oatmeal, fruit, waffles, breakfast sandwiches etc..Would stay there again.  Thank you for giving our team a place to stay during the hurricane. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel and staff. Rooms were neat and clean.  Very accommodating staff.  Breakfast was simple but good:  cereal, oatmeal, fruit, waffles, breakfast sandwiches etc..Would stay there again.  Thank you for giving our team a place to stay during the hurricane. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d10372971-r520478807-Home2_Suites_by_Hilton_Shenandoah_the_Woodlands-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>520478807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurricane Harvey </t>
+  </si>
+  <si>
+    <t>My FEMA Quick Response Team was down in the Houston area for relief efforts for Hurricane Harvey. The folks at the Shenandoah Home 2Suites were still in the process of setting up the hotel for a grand opening and opened their doors for us to have somewhere to stay after we had been in the area for a few days with no designated accommodations. They even did our laundry for us. No small feat since we had been out working and most of our stuff was pretty gross. The hotel is nice and has great patio and relaxation areas, both inside and out. Thank y'all so much for giving us a place to relax and get some much needed rest.  MoreShow less</t>
+  </si>
+  <si>
+    <t>My FEMA Quick Response Team was down in the Houston area for relief efforts for Hurricane Harvey. The folks at the Shenandoah Home 2Suites were still in the process of setting up the hotel for a grand opening and opened their doors for us to have somewhere to stay after we had been in the area for a few days with no designated accommodations. They even did our laundry for us. No small feat since we had been out working and most of our stuff was pretty gross. The hotel is nice and has great patio and relaxation areas, both inside and out. Thank y'all so much for giving us a place to relax and get some much needed rest.  More</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +2047,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1485,22 +2055,12 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1551,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1566,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1588,7 +2148,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1597,53 +2157,53 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1659,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1668,39 +2228,49 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1716,7 +2286,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1725,25 +2295,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1765,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1787,7 +2357,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1796,25 +2366,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1836,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -1858,7 +2428,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1867,25 +2437,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1953,10 +2523,10 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2011,16 +2581,16 @@
         <v>116</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
         <v>5</v>
@@ -2033,19 +2603,19 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
         <v>118</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>119</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -2061,7 +2631,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2070,53 +2640,39 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>122</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="L11" t="s">
-        <v>125</v>
-      </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" t="s">
         <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -2132,7 +2688,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2141,25 +2697,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
         <v>130</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>131</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>132</v>
       </c>
-      <c r="L12" t="s">
-        <v>133</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2180,14 +2736,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" t="s">
-        <v>127</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -2203,7 +2755,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2212,47 +2764,39 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
         <v>138</v>
       </c>
-      <c r="L13" t="s">
-        <v>139</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>141</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2268,7 +2812,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2277,43 +2821,53 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2329,7 +2883,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2338,25 +2892,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2378,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2400,7 +2954,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2409,31 +2963,31 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
         <v>5</v>
@@ -2443,19 +2997,19 @@
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2471,7 +3025,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2480,53 +3034,53 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2542,7 +3096,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2551,43 +3105,53 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -2603,7 +3167,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2612,53 +3176,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="X19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
@@ -2674,7 +3228,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2683,47 +3237,53 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -2739,7 +3299,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2748,28 +3308,28 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>5</v>
@@ -2788,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
@@ -2810,7 +3370,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2819,53 +3379,43 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>206</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -2881,7 +3431,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2890,25 +3440,25 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2930,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -2952,7 +3502,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2961,28 +3511,28 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
@@ -2995,19 +3545,19 @@
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
@@ -3023,7 +3573,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3032,53 +3582,47 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -3094,7 +3638,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3103,38 +3647,34 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
         <v>4</v>
       </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3143,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
@@ -3165,7 +3705,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3174,53 +3714,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
@@ -3236,7 +3766,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3245,53 +3775,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="X28" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
@@ -3307,7 +3827,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3316,25 +3836,25 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3356,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
@@ -3378,7 +3898,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3387,53 +3907,53 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -3449,7 +3969,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3458,25 +3978,25 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3485,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3498,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
         <v>278</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>279</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="32">
@@ -3520,7 +4040,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3529,34 +4049,34 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3569,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="X32" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
@@ -3591,7 +4111,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3600,25 +4120,25 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3627,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -3640,13 +4160,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
@@ -3662,7 +4182,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3671,53 +4191,1967 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
         <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>309</v>
+      </c>
+      <c r="X35" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K38" t="s">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s">
+        <v>333</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>138</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>342</v>
+      </c>
+      <c r="X39" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>260</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>350</v>
+      </c>
+      <c r="X40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>260</v>
+      </c>
+      <c r="O41" t="s">
+        <v>138</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>350</v>
+      </c>
+      <c r="X41" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s">
+        <v>361</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>260</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>350</v>
+      </c>
+      <c r="X42" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>368</v>
+      </c>
+      <c r="X43" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>372</v>
+      </c>
+      <c r="J44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>374</v>
+      </c>
+      <c r="L44" t="s">
+        <v>375</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>260</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>368</v>
+      </c>
+      <c r="X44" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K45" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>382</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>383</v>
+      </c>
+      <c r="X45" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>260</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>383</v>
+      </c>
+      <c r="X46" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>391</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>383</v>
+      </c>
+      <c r="X47" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>396</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>397</v>
+      </c>
+      <c r="J48" t="s">
+        <v>398</v>
+      </c>
+      <c r="K48" t="s">
+        <v>399</v>
+      </c>
+      <c r="L48" t="s">
+        <v>400</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>317</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>401</v>
+      </c>
+      <c r="X48" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" t="s">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s">
+        <v>408</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>317</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>409</v>
+      </c>
+      <c r="X49" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K50" t="s">
+        <v>85</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>317</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>416</v>
+      </c>
+      <c r="X50" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>419</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>420</v>
+      </c>
+      <c r="J51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+      <c r="L51" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>317</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>416</v>
+      </c>
+      <c r="X51" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>425</v>
+      </c>
+      <c r="J52" t="s">
+        <v>426</v>
+      </c>
+      <c r="K52" t="s">
+        <v>427</v>
+      </c>
+      <c r="L52" t="s">
+        <v>428</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>317</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>429</v>
+      </c>
+      <c r="X52" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>432</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>433</v>
+      </c>
+      <c r="J53" t="s">
+        <v>434</v>
+      </c>
+      <c r="K53" t="s">
+        <v>435</v>
+      </c>
+      <c r="L53" t="s">
+        <v>436</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>317</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>437</v>
+      </c>
+      <c r="X53" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>317</v>
+      </c>
+      <c r="O54" t="s">
+        <v>138</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>317</v>
+      </c>
+      <c r="O55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>455</v>
+      </c>
+      <c r="J56" t="s">
+        <v>456</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>317</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>445</v>
+      </c>
+      <c r="X56" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>317</v>
+      </c>
+      <c r="O57" t="s">
+        <v>62</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>445</v>
+      </c>
+      <c r="X57" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>466</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>467</v>
+      </c>
+      <c r="J58" t="s">
+        <v>468</v>
+      </c>
+      <c r="K58" t="s">
+        <v>469</v>
+      </c>
+      <c r="L58" t="s">
+        <v>470</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>471</v>
+      </c>
+      <c r="X58" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>382</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>479</v>
+      </c>
+      <c r="X59" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>483</v>
+      </c>
+      <c r="J60" t="s">
+        <v>484</v>
+      </c>
+      <c r="K60" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>382</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>479</v>
+      </c>
+      <c r="X60" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>489</v>
+      </c>
+      <c r="J61" t="s">
+        <v>490</v>
+      </c>
+      <c r="K61" t="s">
+        <v>491</v>
+      </c>
+      <c r="L61" t="s">
+        <v>492</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>382</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>479</v>
+      </c>
+      <c r="X61" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63714</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
+      </c>
+      <c r="K62" t="s">
+        <v>496</v>
+      </c>
+      <c r="L62" t="s">
+        <v>497</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>479</v>
+      </c>
+      <c r="X62" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
